--- a/ontologies/trans_punned.xlsx
+++ b/ontologies/trans_punned.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gruber04\git_repos\PhD\phd_semantic_init\ontologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBAF1CD-C28D-4DD9-B20E-79F3396FC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6482D671-A977-4A6A-A4D4-1630D37F64AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="510" windowWidth="19305" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31170" yWindow="-3585" windowWidth="19305" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preamble" sheetId="2" r:id="rId1"/>
     <sheet name="meta_properties" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">meta_properties!$A$1:$I$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">meta_properties!$A$1:$I$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,9 +73,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>~U</t>
-  </si>
-  <si>
     <t>Assumed external meta properties</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>;</t>
   </si>
   <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
     <t>owl:imports</t>
   </si>
   <si>
@@ -374,6 +368,12 @@
   </si>
   <si>
     <t>-R</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>-U</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,262 +709,262 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,22 +996,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1031,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,12 +1077,12 @@
         <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1097,12 +1097,12 @@
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1117,15 +1117,15 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1140,15 +1140,15 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1163,21 +1163,21 @@
         <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
@@ -1186,21 +1186,21 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -1209,15 +1209,15 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -1232,15 +1232,15 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
@@ -1252,18 +1252,18 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -1278,15 +1278,15 @@
         <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -1301,15 +1301,15 @@
         <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -1321,15 +1321,15 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1344,15 +1344,15 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -1367,21 +1367,21 @@
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -1390,15 +1390,15 @@
         <v>6</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
@@ -1413,15 +1413,15 @@
         <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -1433,18 +1433,18 @@
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -1456,18 +1456,18 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -1482,21 +1482,21 @@
         <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>4</v>
@@ -1505,15 +1505,15 @@
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
@@ -1528,15 +1528,15 @@
         <v>6</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -1545,21 +1545,21 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -1574,21 +1574,21 @@
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1597,15 +1597,15 @@
         <v>6</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
@@ -1617,18 +1617,18 @@
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -1643,15 +1643,15 @@
         <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -1666,15 +1666,15 @@
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -1689,15 +1689,15 @@
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -1712,15 +1712,15 @@
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -1735,15 +1735,15 @@
         <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -1758,21 +1758,21 @@
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
@@ -1781,15 +1781,15 @@
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>5</v>
@@ -1804,15 +1804,15 @@
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
@@ -1821,21 +1821,21 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>5</v>
@@ -1847,18 +1847,18 @@
         <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>5</v>
@@ -1873,15 +1873,15 @@
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -1896,18 +1896,18 @@
         <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>4</v>
@@ -1916,15 +1916,15 @@
         <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
@@ -1939,15 +1939,15 @@
         <v>9</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
@@ -1962,15 +1962,15 @@
         <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
@@ -1982,24 +1982,24 @@
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>4</v>
@@ -2008,15 +2008,15 @@
         <v>6</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>5</v>
@@ -2028,15 +2028,15 @@
         <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>5</v>
@@ -2051,21 +2051,21 @@
         <v>6</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>4</v>
@@ -2074,15 +2074,15 @@
         <v>6</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
@@ -2097,15 +2097,15 @@
         <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
@@ -2114,18 +2114,18 @@
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
@@ -2143,10 +2143,15 @@
         <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
+      <sortCondition ref="A1:A51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
